--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879C09F-0377-4986-BB9E-1C1E7957C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D9450-C3AA-42C4-B857-F2EB5204B874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="TestData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -463,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,10 +519,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -529,31 +530,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -561,10 +548,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDF116E-E0D9-4F25-89C9-459B687FE60D}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91945AB-33E2-460F-AED5-3F0527A961E2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
